--- a/BackLog/BACKLOG-DO-PIM.xlsx
+++ b/BackLog/BACKLOG-DO-PIM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRSJESUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50102A7-884A-499E-BAFE-0DC62B60A10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DD2CC-FEEC-490C-AF59-9B6B67674639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C62AA9DD-5F5A-410C-B9F0-5FCC6C8AC928}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG REQUISITOS PIM" sheetId="2" r:id="rId1"/>
+    <sheet name="BURNDOWN" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
   <si>
     <t>PRIORIDADE</t>
   </si>
   <si>
-    <t>CHECK</t>
-  </si>
-  <si>
-    <t>SPRINT</t>
-  </si>
-  <si>
     <t>HOMOLOGAÇÃO DO SISTEMA</t>
   </si>
   <si>
@@ -56,42 +51,9 @@
     <t>APRESENTAÇÃO POWER POINT</t>
   </si>
   <si>
-    <t>DICIONÁRIO</t>
-  </si>
-  <si>
-    <t>DIAGRAMAS UML</t>
-  </si>
-  <si>
-    <t>POC EM MODO CONSOLE QUE FAÇA CRUD</t>
-  </si>
-  <si>
-    <t>INTERFACE DE ALTO NÍVEL</t>
-  </si>
-  <si>
     <t>PESQUISA DO TEMA</t>
   </si>
   <si>
-    <t>REQUISITOS</t>
-  </si>
-  <si>
-    <t>DIAGRAMA ER E DICIONÁRIO DE DADO</t>
-  </si>
-  <si>
-    <t>SCRIPT CRIAÇÃO DO BANCO</t>
-  </si>
-  <si>
-    <t>ESTIMATIVA DE VIABILIDADE</t>
-  </si>
-  <si>
-    <t>DEFINIR RECURSOS HUMANOS UTILIZADOS</t>
-  </si>
-  <si>
-    <t>ROTEIRO DE TESTES BD</t>
-  </si>
-  <si>
-    <t>CENARIO DETALHADO</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -101,13 +63,151 @@
     <t>ATRASADO</t>
   </si>
   <si>
-    <t>O REQUISITO FOI FEITO DENTRO DA SPRINT CORRETA</t>
-  </si>
-  <si>
-    <t>O REQUISITO ESTÁ SENDO FEITO</t>
-  </si>
-  <si>
-    <t>O REQUISITO NÃO FOI FEITO DENTRO DA SPRINT CORRETA</t>
+    <t>RESPONSÁVEL</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO BACKLOG</t>
+  </si>
+  <si>
+    <t>REQUISITOS CLIENTE</t>
+  </si>
+  <si>
+    <t>REQUISITOS SISTEMA</t>
+  </si>
+  <si>
+    <t>DIAGRAMA CLASSE DE USO</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE CLASSE</t>
+  </si>
+  <si>
+    <t>COMEÇAR PROTOTIPO DE TELA</t>
+  </si>
+  <si>
+    <t>INICIO DIAGRAMA DE CASO DE USO</t>
+  </si>
+  <si>
+    <t>INICIO RECURSOS HUMANOS UTILIZADOS</t>
+  </si>
+  <si>
+    <t>INICIO DIAGRAMA DE CLASSE</t>
+  </si>
+  <si>
+    <t>INICIO DIAGRAMA DE IMPLANTAÇÃO</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE SEQUENCIA</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE IMPLANTAÇÃO</t>
+  </si>
+  <si>
+    <t>INICIO DIAGRAMA ER</t>
+  </si>
+  <si>
+    <t>DICIONÁRIO DE DADOS</t>
+  </si>
+  <si>
+    <t>ESTIMATIVA VIABILIDADE</t>
+  </si>
+  <si>
+    <t>DIAGRAMA ER</t>
+  </si>
+  <si>
+    <t>SCRIPT BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>ROTEIRO DE TESTES BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>FINALIZAÇÃO PROTOTIPO DE TELAS</t>
+  </si>
+  <si>
+    <t>INICIO PoC EM MODO CONSOLE QUE FAÇA CRUD</t>
+  </si>
+  <si>
+    <t>SPRINT 8 (12/05 - 18/05)</t>
+  </si>
+  <si>
+    <t>SPRINT 7 (05/05 - 11/05)</t>
+  </si>
+  <si>
+    <t>SPRINT 6 (28/04 - 04/05)</t>
+  </si>
+  <si>
+    <t>SPRINT 5 (21/04 - 27/04)</t>
+  </si>
+  <si>
+    <t>SPRINT 4 (14/04 - 20/04)</t>
+  </si>
+  <si>
+    <t>SPRINT 3 (07/04 - 13/04)</t>
+  </si>
+  <si>
+    <t>SPRINT 2 (31/03 - 06/04)</t>
+  </si>
+  <si>
+    <t>SPRINT 1 (24/03 - 30/03)</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>BAIXA</t>
+  </si>
+  <si>
+    <t>INICIO DIAGRAMA DE SEQUENCIA</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CONCLUÍDO</t>
+  </si>
+  <si>
+    <t>MATHEUS RAFAEL</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>DATA PREVISTA</t>
+  </si>
+  <si>
+    <t>DATA CONCLUIDA</t>
+  </si>
+  <si>
+    <t>24/03/2024 A 30/03/2024</t>
+  </si>
+  <si>
+    <t>PRIORIDADE2</t>
+  </si>
+  <si>
+    <t>PREVISTO</t>
+  </si>
+  <si>
+    <t>FEITO</t>
+  </si>
+  <si>
+    <t>RESTANTE</t>
+  </si>
+  <si>
+    <t>CONCLUIDO</t>
+  </si>
+  <si>
+    <t>SPRINT1</t>
+  </si>
+  <si>
+    <t>SPRINT2</t>
+  </si>
+  <si>
+    <t>SPRINT3</t>
+  </si>
+  <si>
+    <t>SPRINT4</t>
   </si>
 </sst>
 </file>
@@ -123,15 +223,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,19 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
@@ -167,24 +253,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="1"/>
       </top>
@@ -193,31 +266,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="7">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8989"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -226,6 +333,8 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -236,107 +345,27 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8989"/>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFE0761E"/>
     </mruColors>
   </colors>
@@ -352,12 +381,128 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08C1064F-0EDC-45BE-A52D-E7EF4D872AAC}" name="Tabela2" displayName="Tabela2" ref="B4:E18" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{299D40FC-2664-40D2-B954-26AE35510449}" name="REQUISITOS"/>
-    <tableColumn id="2" xr3:uid="{174094B4-509A-4683-9CCB-4F253793FF33}" name="PRIORIDADE"/>
-    <tableColumn id="3" xr3:uid="{29E85E60-805D-4B95-A7CB-3CCFC2276C3D}" name="SPRINT"/>
-    <tableColumn id="4" xr3:uid="{0DCC185B-2D59-41FC-8240-58ADF2DA75A7}" name="CHECK"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9985CF4D-3EB8-4473-A9C7-458C89461B60}" name="Tabela1" displayName="Tabela1" ref="B3:H5" totalsRowShown="0">
+  <autoFilter ref="B3:H5" xr:uid="{9985CF4D-3EB8-4473-A9C7-458C89461B60}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{581FB3CC-AC6E-42B7-88C6-4E3540ECFD61}" name="SPRINT 1 (24/03 - 30/03)"/>
+    <tableColumn id="8" xr3:uid="{8FFE1382-E957-4763-BB12-800A45C50D27}" name="PRIORIDADE"/>
+    <tableColumn id="2" xr3:uid="{E1AA7542-9AD4-454E-B429-BD0562E4EB28}" name="PRIORIDADE2"/>
+    <tableColumn id="3" xr3:uid="{73D60322-3F3A-4B0F-BE2C-88019D221637}" name="STATUS"/>
+    <tableColumn id="4" xr3:uid="{F2E6557E-49C2-4B16-8B07-F75076F4FF38}" name="RESPONSÁVEL"/>
+    <tableColumn id="5" xr3:uid="{F59E1B9F-D418-4A13-9372-3EDAE22268AC}" name="DATA PREVISTA"/>
+    <tableColumn id="7" xr3:uid="{7618D736-674F-4E05-8FB2-EEC3D92291A8}" name="DATA CONCLUIDA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF5468FE-FC29-4AD8-A2CB-894077619D92}" name="Tabela3" displayName="Tabela3" ref="B6:H9" totalsRowShown="0">
+  <autoFilter ref="B6:H9" xr:uid="{FF5468FE-FC29-4AD8-A2CB-894077619D92}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E5A5BFC2-08F3-49DC-8854-BE018E62AA0F}" name="SPRINT 2 (31/03 - 06/04)"/>
+    <tableColumn id="7" xr3:uid="{DAFEA524-893B-40F0-A828-80A9A08691F7}" name="PRIORIDADE"/>
+    <tableColumn id="2" xr3:uid="{15B37522-CA86-4DD9-990B-4526D3EAC48B}" name="PRIORIDADE2"/>
+    <tableColumn id="3" xr3:uid="{5228ED46-2B1F-4780-BEE3-3DBA0EBDFAA9}" name="STATUS"/>
+    <tableColumn id="4" xr3:uid="{512FD898-2857-41DA-A5B2-FF28389A357B}" name="RESPONSÁVEL"/>
+    <tableColumn id="5" xr3:uid="{D9F3C3E6-7BBB-4C3F-8DDD-4AA818CAC74B}" name="DATA PREVISTA"/>
+    <tableColumn id="6" xr3:uid="{A6354865-EFD1-4DD4-81C9-8DF56304FE78}" name="DATA CONCLUIDA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{997CC99A-EA52-4124-8DE4-CA4720398B49}" name="Tabela4" displayName="Tabela4" ref="B10:H13" totalsRowShown="0">
+  <autoFilter ref="B10:H13" xr:uid="{997CC99A-EA52-4124-8DE4-CA4720398B49}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{40FE7374-EBDE-4188-B5A4-5E0BDFB0506F}" name="SPRINT 3 (07/04 - 13/04)"/>
+    <tableColumn id="7" xr3:uid="{2393F9D3-645C-4109-95E1-18A9CCCF0E16}" name="PRIORIDADE"/>
+    <tableColumn id="2" xr3:uid="{0200EE15-9712-4D33-80DD-0A61A55F9896}" name="PRIORIDADE2"/>
+    <tableColumn id="3" xr3:uid="{F4C50911-05EE-4416-A0DF-747D428FA9DC}" name="STATUS"/>
+    <tableColumn id="4" xr3:uid="{9028C36B-BE2E-4C63-B033-D7EED833F55F}" name="RESPONSÁVEL"/>
+    <tableColumn id="5" xr3:uid="{40BD1B41-F30D-4520-BEFB-10D972CE6FAB}" name="DATA PREVISTA"/>
+    <tableColumn id="6" xr3:uid="{58119DA3-6D11-45C8-8E66-4B6B0297A963}" name="DATA CONCLUIDA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{673614DE-1607-4098-A109-F1958432AAE6}" name="Tabela5" displayName="Tabela5" ref="B14:H16" totalsRowShown="0">
+  <autoFilter ref="B14:H16" xr:uid="{673614DE-1607-4098-A109-F1958432AAE6}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C51934F0-EDEC-4018-9046-FF2344117C95}" name="SPRINT 4 (14/04 - 20/04)"/>
+    <tableColumn id="7" xr3:uid="{B462DDB5-C5F2-4F39-9A5A-9713C1208633}" name="PRIORIDADE"/>
+    <tableColumn id="2" xr3:uid="{05E50BAD-DAC0-4507-AA9A-386E633F5603}" name="PRIORIDADE2"/>
+    <tableColumn id="3" xr3:uid="{3B329136-7EDE-4866-BBB7-6A458B706CF0}" name="STATUS"/>
+    <tableColumn id="4" xr3:uid="{48F332A6-6974-4700-8056-E97D56D7305C}" name="RESPONSÁVEL"/>
+    <tableColumn id="5" xr3:uid="{56E53319-81AD-4B1E-9112-FA927FB5FC3A}" name="DATA PREVISTA"/>
+    <tableColumn id="6" xr3:uid="{D0888A6C-E86A-4141-AA9A-484CFB9FE1FA}" name="DATA CONCLUIDA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CAF41E5E-E007-4FDF-951D-259315EEDE7D}" name="Tabela6" displayName="Tabela6" ref="B17:H20" totalsRowShown="0" tableBorderDxfId="6">
+  <autoFilter ref="B17:H20" xr:uid="{CAF41E5E-E007-4FDF-951D-259315EEDE7D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D1D7BFE6-64D4-44E8-80AD-A04B00C966F4}" name="SPRINT 5 (21/04 - 27/04)"/>
+    <tableColumn id="7" xr3:uid="{79F2DE50-9481-45E0-A43C-390DAFE58BF6}" name="PRIORIDADE"/>
+    <tableColumn id="2" xr3:uid="{93669C0E-F89A-4DCA-824A-23BFB22473A4}" name="PRIORIDADE2"/>
+    <tableColumn id="3" xr3:uid="{E71CEF48-004A-4F92-BFE1-D1835EEFAC5E}" name="STATUS"/>
+    <tableColumn id="4" xr3:uid="{37BAAEE9-1F36-4FF6-BD65-6E0CDE94478E}" name="RESPONSÁVEL"/>
+    <tableColumn id="5" xr3:uid="{C0E5AA02-AB95-45BE-9098-92281CD338D9}" name="DATA PREVISTA"/>
+    <tableColumn id="6" xr3:uid="{7AD6FFF7-253A-462B-9E7D-988183CAB845}" name="DATA CONCLUIDA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7611994B-D486-4308-BED2-C372F6E60A9E}" name="Tabela7" displayName="Tabela7" ref="B21:H25" totalsRowShown="0">
+  <autoFilter ref="B21:H25" xr:uid="{7611994B-D486-4308-BED2-C372F6E60A9E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6F3D437C-7CF6-4EC4-8C86-7F6660942268}" name="SPRINT 6 (28/04 - 04/05)"/>
+    <tableColumn id="7" xr3:uid="{CDBB3501-64DA-47A8-8130-5B1EC14A8D78}" name="PRIORIDADE"/>
+    <tableColumn id="2" xr3:uid="{A1BFC993-2DCE-41AD-9E82-BCCDE9393DA7}" name="PRIORIDADE2"/>
+    <tableColumn id="3" xr3:uid="{6DC77BC7-DAD9-4A06-866B-187F0AF21F86}" name="STATUS"/>
+    <tableColumn id="4" xr3:uid="{C8A45F3E-2C4F-4182-B8F1-AF6A93A88510}" name="RESPONSÁVEL"/>
+    <tableColumn id="5" xr3:uid="{4D8DF695-A74F-49BD-8E9C-E9B1EF854BDE}" name="DATA PREVISTA"/>
+    <tableColumn id="6" xr3:uid="{6A1F17F2-D0DA-44BC-8AE5-3C6E4EB88EF1}" name="DATA CONCLUIDA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0F113A8F-AE58-42FB-89CE-42171D596455}" name="Tabela8" displayName="Tabela8" ref="B26:H31" totalsRowShown="0">
+  <autoFilter ref="B26:H31" xr:uid="{0F113A8F-AE58-42FB-89CE-42171D596455}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{651213A5-5DB1-44A4-B18B-52A354D59AA9}" name="SPRINT 7 (05/05 - 11/05)"/>
+    <tableColumn id="7" xr3:uid="{DB425461-7899-434C-A7DB-763E408208FE}" name="PRIORIDADE"/>
+    <tableColumn id="2" xr3:uid="{717EC196-3BBB-40DB-BECE-078C22B82157}" name="PRIORIDADE2"/>
+    <tableColumn id="3" xr3:uid="{A6DD9E53-21F7-4F15-88AF-24541F38BEEC}" name="STATUS"/>
+    <tableColumn id="4" xr3:uid="{262B1BBF-9C58-43A9-93D5-ACDF87D78D87}" name="RESPONSÁVEL"/>
+    <tableColumn id="5" xr3:uid="{22514FBB-128D-4209-9C11-958BED18240F}" name="DATA PREVISTA"/>
+    <tableColumn id="6" xr3:uid="{0655C9F2-2DC8-48A9-B98A-BC1915179D9F}" name="DATA CONCLUIDA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C05034CE-BC29-4695-8CDF-2ECFA5C846DD}" name="Tabela9" displayName="Tabela9" ref="B32:H35" totalsRowShown="0">
+  <autoFilter ref="B32:H35" xr:uid="{C05034CE-BC29-4695-8CDF-2ECFA5C846DD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{15E7049D-A9A0-4203-A43A-4D59F02ED7EA}" name="SPRINT 8 (12/05 - 18/05)"/>
+    <tableColumn id="7" xr3:uid="{8241E987-A570-465F-93C4-22A1D9BDC782}" name="PRIORIDADE"/>
+    <tableColumn id="2" xr3:uid="{502CDC92-F47D-4D4D-B4CB-E94DE0ADA46A}" name="PRIORIDADE2"/>
+    <tableColumn id="3" xr3:uid="{8FF1D12C-303A-445C-893C-EC7FDE9A25EA}" name="STATUS"/>
+    <tableColumn id="4" xr3:uid="{464CC35C-3374-4988-9181-E85A4A085E23}" name="RESPONSÁVEL"/>
+    <tableColumn id="5" xr3:uid="{209ABC60-E232-46F3-97C5-F10DEA32C9E5}" name="DATA PREVISTA"/>
+    <tableColumn id="6" xr3:uid="{E8094452-A3B6-4E1C-BE91-8366ECBC0009}" name="DATA CONCLUIDA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -680,290 +825,881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18F3B2E-D681-48F0-9448-7709D98ABCA6}">
-  <dimension ref="B4:H18"/>
+  <dimension ref="B3:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45380</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45381</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E5:E18">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"OK"</formula>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D35">
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+      <formula>$D$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"ANDAMENTO"</formula>
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
+      <formula>$D$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"ATRASADO"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+      <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"ATRASADO"</formula>
+  <conditionalFormatting sqref="E3:E35">
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
+      <formula>$E$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"ANDAMENTO"</formula>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>$E$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"ATRASADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"ANDAMENTO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"ATRASADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"ANDAMENTO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E18" xr:uid="{25B3CAA8-E905-4CF6-8837-86987BCCDA49}">
-      <formula1>$G$5:$G$7</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBE5F17-04DF-46BA-962F-8DA64B08A637}">
+  <dimension ref="A2:N32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B3:B27)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <f>SUMIF(C3:C27,"OK",B3:B27)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <f>B30-B31</f>
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/BackLog/BACKLOG-DO-PIM.xlsx
+++ b/BackLog/BACKLOG-DO-PIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRSJESUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DD2CC-FEEC-490C-AF59-9B6B67674639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994F97F-CF42-4D8A-ACFA-D81DA0AFC7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C62AA9DD-5F5A-410C-B9F0-5FCC6C8AC928}"/>
   </bookViews>
@@ -283,13 +283,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,7 +827,7 @@
   <dimension ref="B3:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,8 +837,9 @@
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
@@ -1105,7 +1105,7 @@
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
@@ -1479,7 +1479,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
@@ -1502,7 +1502,7 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1510,15 +1510,15 @@
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1527,7 +1527,7 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/BackLog/BACKLOG-DO-PIM.xlsx
+++ b/BackLog/BACKLOG-DO-PIM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRSJESUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrsil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994F97F-CF42-4D8A-ACFA-D81DA0AFC7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F971A1-3975-4728-950A-ACA9FDE51FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C62AA9DD-5F5A-410C-B9F0-5FCC6C8AC928}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C62AA9DD-5F5A-410C-B9F0-5FCC6C8AC928}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG REQUISITOS PIM" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="56">
   <si>
     <t>PRIORIDADE</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>ANDAMENTO</t>
-  </si>
-  <si>
-    <t>ATRASADO</t>
   </si>
   <si>
     <t>RESPONSÁVEL</t>
@@ -296,7 +293,173 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8989"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8989"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8989"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -444,7 +607,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CAF41E5E-E007-4FDF-951D-259315EEDE7D}" name="Tabela6" displayName="Tabela6" ref="B17:H20" totalsRowShown="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CAF41E5E-E007-4FDF-951D-259315EEDE7D}" name="Tabela6" displayName="Tabela6" ref="B17:H20" totalsRowShown="0" tableBorderDxfId="26">
   <autoFilter ref="B17:H20" xr:uid="{CAF41E5E-E007-4FDF-951D-259315EEDE7D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D1D7BFE6-64D4-44E8-80AD-A04B00C966F4}" name="SPRINT 5 (21/04 - 27/04)"/>
@@ -826,48 +989,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18F3B2E-D681-48F0-9448-7709D98ABCA6}">
   <dimension ref="B3:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -875,513 +1038,519 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3">
         <v>45380</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3">
         <v>45381</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>15</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
       <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
         <v>45</v>
       </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
         <v>45</v>
       </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
         <v>45</v>
       </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>2</v>
       </c>
@@ -1389,13 +1558,13 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1403,13 +1572,13 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -1417,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1425,31 +1594,58 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D35">
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+  <conditionalFormatting sqref="D3:D31 D33:D35">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>$D$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>$D$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E35">
-    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="33" operator="equal">
       <formula>$E$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="34" operator="equal">
+      <formula>$E$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E35">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$E$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>$E$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$E$16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="8">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1457,6 +1653,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1469,35 +1666,35 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1506,7 +1703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -1520,9 +1717,9 @@
       <c r="L4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1531,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>10</v>
       </c>
@@ -1539,7 +1736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10</v>
       </c>
@@ -1547,9 +1744,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1558,13 +1755,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -1572,127 +1769,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <f>SUM(B3:B27)</f>
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <f>SUMIF(C3:C27,"OK",B3:B27)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <f>B30-B31</f>
